--- a/forecast_summary_B09JZGTYXJ.xlsx
+++ b/forecast_summary_B09JZGTYXJ.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,11 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -488,7 +493,7 @@
         <v>7.163730987795788</v>
       </c>
       <c r="D2" t="n">
-        <v>55.41276616289392</v>
+        <v>52.02881575742217</v>
       </c>
       <c r="E2" t="n">
         <v>2</v>
@@ -511,6 +516,9 @@
         <is>
           <t>Z690 UD AX DDR4</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -524,7 +532,7 @@
         <v>3.863607996870153</v>
       </c>
       <c r="D3" t="n">
-        <v>48.51654641259871</v>
+        <v>47.92710747667432</v>
       </c>
       <c r="E3" t="n">
         <v>2</v>
@@ -547,6 +555,9 @@
         <is>
           <t>Z690 UD AX DDR4</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -560,7 +571,7 @@
         <v>-14.71492181807278</v>
       </c>
       <c r="D4" t="n">
-        <v>34.14078187443156</v>
+        <v>33.07604573148502</v>
       </c>
       <c r="E4" t="n">
         <v>2</v>
@@ -583,6 +594,9 @@
         <is>
           <t>Z690 UD AX DDR4</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -596,7 +610,7 @@
         <v>-38.27760069072765</v>
       </c>
       <c r="D5" t="n">
-        <v>9.936985978452473</v>
+        <v>9.207051708665858</v>
       </c>
       <c r="E5" t="n">
         <v>2</v>
@@ -619,6 +633,9 @@
         <is>
           <t>Z690 UD AX DDR4</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,7 +649,7 @@
         <v>-50.08918932040832</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2652634443751857</v>
+        <v>-3.524832444695711</v>
       </c>
       <c r="E6" t="n">
         <v>2</v>
@@ -655,6 +672,9 @@
         <is>
           <t>Z690 UD AX DDR4</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -668,7 +688,7 @@
         <v>-41.87699396380484</v>
       </c>
       <c r="D7" t="n">
-        <v>5.617024670065195</v>
+        <v>3.998515734043421</v>
       </c>
       <c r="E7" t="n">
         <v>2</v>
@@ -691,6 +711,9 @@
         <is>
           <t>Z690 UD AX DDR4</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -704,7 +727,7 @@
         <v>-21.09524905990065</v>
       </c>
       <c r="D8" t="n">
-        <v>29.80112253516723</v>
+        <v>28.44012411500146</v>
       </c>
       <c r="E8" t="n">
         <v>2</v>
@@ -727,6 +750,9 @@
         <is>
           <t>Z690 UD AX DDR4</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -740,7 +766,7 @@
         <v>-3.26136680091989</v>
       </c>
       <c r="D9" t="n">
-        <v>41.64763961910518</v>
+        <v>43.71721859699537</v>
       </c>
       <c r="E9" t="n">
         <v>2</v>
@@ -763,6 +789,9 @@
         <is>
           <t>Z690 UD AX DDR4</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -776,7 +805,7 @@
         <v>2.355179062582283</v>
       </c>
       <c r="D10" t="n">
-        <v>51.61274736470014</v>
+        <v>49.997306963117</v>
       </c>
       <c r="E10" t="n">
         <v>2</v>
@@ -799,6 +828,9 @@
         <is>
           <t>Z690 UD AX DDR4</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -812,7 +844,7 @@
         <v>-0.9444567721304279</v>
       </c>
       <c r="D11" t="n">
-        <v>46.45028625427735</v>
+        <v>47.71823137727537</v>
       </c>
       <c r="E11" t="n">
         <v>2</v>
@@ -835,6 +867,9 @@
         <is>
           <t>Z690 UD AX DDR4</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -848,7 +883,7 @@
         <v>-4.033692971306711</v>
       </c>
       <c r="D12" t="n">
-        <v>42.37652342135488</v>
+        <v>43.37154337610349</v>
       </c>
       <c r="E12" t="n">
         <v>2</v>
@@ -871,6 +906,9 @@
         <is>
           <t>Z690 UD AX DDR4</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -884,7 +922,7 @@
         <v>-2.741509138145065</v>
       </c>
       <c r="D13" t="n">
-        <v>44.51114551706161</v>
+        <v>45.6859285105015</v>
       </c>
       <c r="E13" t="n">
         <v>2</v>
@@ -907,6 +945,9 @@
         <is>
           <t>Z690 UD AX DDR4</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -920,7 +961,7 @@
         <v>-0.7967878120003128</v>
       </c>
       <c r="D14" t="n">
-        <v>44.76758719580959</v>
+        <v>50.15183846489366</v>
       </c>
       <c r="E14" t="n">
         <v>2</v>
@@ -943,6 +984,9 @@
         <is>
           <t>Z690 UD AX DDR4</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -956,7 +1000,7 @@
         <v>-3.456193939169401</v>
       </c>
       <c r="D15" t="n">
-        <v>42.61015099180109</v>
+        <v>43.81131695615425</v>
       </c>
       <c r="E15" t="n">
         <v>2</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>Z690 UD AX DDR4</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -992,7 +1039,7 @@
         <v>-10.78372225316516</v>
       </c>
       <c r="D16" t="n">
-        <v>35.41863657242053</v>
+        <v>35.42817877704695</v>
       </c>
       <c r="E16" t="n">
         <v>2</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>Z690 UD AX DDR4</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1028,7 +1078,7 @@
         <v>-18.24759325096761</v>
       </c>
       <c r="D17" t="n">
-        <v>28.95797073636072</v>
+        <v>30.18346131268456</v>
       </c>
       <c r="E17" t="n">
         <v>2</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>Z690 UD AX DDR4</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1064,7 +1117,7 @@
         <v>-22.44400977157951</v>
       </c>
       <c r="D18" t="n">
-        <v>25.89041984754361</v>
+        <v>24.03878622141251</v>
       </c>
       <c r="E18" t="n">
         <v>2</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>Z690 UD AX DDR4</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1100,7 +1156,7 @@
         <v>-24.17614604855405</v>
       </c>
       <c r="D19" t="n">
-        <v>24.01310720388579</v>
+        <v>20.70942375935693</v>
       </c>
       <c r="E19" t="n">
         <v>2</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>Z690 UD AX DDR4</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1136,7 +1195,7 @@
         <v>-25.82628112766051</v>
       </c>
       <c r="D20" t="n">
-        <v>21.27157483055867</v>
+        <v>23.92495458171825</v>
       </c>
       <c r="E20" t="n">
         <v>2</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>Z690 UD AX DDR4</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1172,7 +1234,7 @@
         <v>-27.61870056447919</v>
       </c>
       <c r="D21" t="n">
-        <v>20.76260141798128</v>
+        <v>22.79776459586171</v>
       </c>
       <c r="E21" t="n">
         <v>2</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>Z690 UD AX DDR4</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
